--- a/Design/Main_Data/Hero.xlsx
+++ b/Design/Main_Data/Hero.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FlushX\trunk\Design\Main_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Define" sheetId="2" r:id="rId1"/>
     <sheet name="Char_Data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>char_ID</t>
   </si>
@@ -369,6 +364,14 @@
   </si>
   <si>
     <t>Assets\Resources\Heroes\Prefabs\Yu.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,7 +720,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -752,7 +755,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -929,7 +932,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1179,7 +1182,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1215,7 +1218,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>22</v>
@@ -1224,7 +1227,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>53</v>

--- a/Design/Main_Data/Hero.xlsx
+++ b/Design/Main_Data/Hero.xlsx
@@ -271,107 +271,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OriginalResource\UI\Profile\2001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OriginalResource\UI\Profile\2002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OriginalResource\UI\Profile\2004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OriginalResource\UI\Profile\1004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OriginalResource\UI\Profile\2003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OriginalResource\UI\Profile\1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OriginalResource\UI\Profile\1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OriginalResource\UI\Profile\1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OriginalResource\UI\Common\2001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OriginalResource\UI\Common\2002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OriginalResource\UI\Common\2004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OriginalResource\UI\Common\1004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OriginalResource\UI\Common\2003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OriginalResource\UI\Common\1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OriginalResource\UI\Common\1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OriginalResource\UI\Common\1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets\Resources\Heroes\Prefabs\Ag.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets\Resources\Heroes\Prefabs\Ak.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets\Resources\Heroes\Prefabs\Bc.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets\Resources\Heroes\Prefabs\Ce.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets\Resources\Heroes\Prefabs\El.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets\Resources\Heroes\Prefabs\La.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets\Resources\Heroes\Prefabs\Mi.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets\Resources\Heroes\Prefabs\Yu.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maxHP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource/UI/Profile/2001</t>
+  </si>
+  <si>
+    <t>OriginalResource/UI/Common/2001</t>
+  </si>
+  <si>
+    <t>OriginalResource/UI/Profile/2002</t>
+  </si>
+  <si>
+    <t>OriginalResource/UI/Common/2002</t>
+  </si>
+  <si>
+    <t>OriginalResource/UI/Profile/2004</t>
+  </si>
+  <si>
+    <t>OriginalResource/UI/Common/2004</t>
+  </si>
+  <si>
+    <t>OriginalResource/UI/Profile/1004</t>
+  </si>
+  <si>
+    <t>OriginalResource/UI/Common/1004</t>
+  </si>
+  <si>
+    <t>OriginalResource/UI/Profile/2003</t>
+  </si>
+  <si>
+    <t>OriginalResource/UI/Common/2003</t>
+  </si>
+  <si>
+    <t>OriginalResource/UI/Profile/1002</t>
+  </si>
+  <si>
+    <t>OriginalResource/UI/Common/1002</t>
+  </si>
+  <si>
+    <t>OriginalResource/UI/Profile/1003</t>
+  </si>
+  <si>
+    <t>OriginalResource/UI/Common/1003</t>
+  </si>
+  <si>
+    <t>OriginalResource/UI/Profile/1001</t>
+  </si>
+  <si>
+    <t>OriginalResource/UI/Common/1001</t>
+  </si>
+  <si>
+    <t>Heroes/Prefabs/Yu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heroes/Prefabs/Ag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heroes/Prefabs/Ak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heroes/Prefabs/Bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heroes/Prefabs/Ce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heroes/Prefabs/El</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heroes/Prefabs/La</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heroes/Prefabs/Mi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1182,7 +1166,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1218,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>22</v>
@@ -1227,7 +1211,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>53</v>
@@ -1313,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="S2" s="14">
         <v>0</v>
@@ -1372,13 +1356,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S3" s="14">
         <v>0</v>
@@ -1431,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S4" s="14">
         <v>0</v>
@@ -1490,13 +1474,13 @@
         <v>0</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S5" s="14">
         <v>0</v>
@@ -1549,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S6" s="14">
         <v>0</v>
@@ -1608,10 +1592,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="R7" s="14" t="s">
         <v>79</v>
@@ -1667,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S8" s="14">
         <v>0</v>
@@ -1726,13 +1710,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S9" s="14">
         <v>0</v>

--- a/Design/Main_Data/Hero.xlsx
+++ b/Design/Main_Data/Hero.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
   <si>
     <t>char_ID</t>
   </si>
@@ -357,6 +357,21 @@
   <si>
     <t>Heroes/Prefabs/Mi</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseAtkEfc</t>
+  </si>
+  <si>
+    <t>BaseAtkSound</t>
+  </si>
+  <si>
+    <t>Blow1</t>
+  </si>
+  <si>
+    <t>Blow2</t>
+  </si>
+  <si>
+    <t>Blade</t>
   </si>
 </sst>
 </file>
@@ -916,7 +931,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1160,13 +1175,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1189,9 +1204,11 @@
     <col min="17" max="17" width="33.875" style="14" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="36.5" style="14" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -1249,8 +1266,14 @@
       <c r="S1" s="14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1308,8 +1331,14 @@
       <c r="S2" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2" t="s">
+        <v>96</v>
+      </c>
+      <c r="U2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1367,8 +1396,14 @@
       <c r="S3" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1426,8 +1461,14 @@
       <c r="S4" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4" t="s">
+        <v>96</v>
+      </c>
+      <c r="U4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1485,8 +1526,14 @@
       <c r="S5" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5" t="s">
+        <v>96</v>
+      </c>
+      <c r="U5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1544,8 +1591,14 @@
       <c r="S6" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6" t="s">
+        <v>96</v>
+      </c>
+      <c r="U6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1603,8 +1656,14 @@
       <c r="S7" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7" t="s">
+        <v>96</v>
+      </c>
+      <c r="U7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1662,8 +1721,14 @@
       <c r="S8" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1720,6 +1785,12 @@
       </c>
       <c r="S9" s="14">
         <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Main_Data/Hero.xlsx
+++ b/Design/Main_Data/Hero.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FlushX\trunk\Design\Main_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
@@ -931,7 +936,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1178,10 +1183,10 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1284,19 +1289,19 @@
         <v>63</v>
       </c>
       <c r="D2" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="14">
+        <v>200</v>
+      </c>
+      <c r="F2" s="14">
         <v>100</v>
       </c>
-      <c r="E2" s="14">
-        <v>20</v>
-      </c>
-      <c r="F2" s="14">
-        <v>5</v>
-      </c>
       <c r="G2" s="14">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="H2" s="14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I2" s="14">
         <v>150</v>
@@ -1349,19 +1354,19 @@
         <v>64</v>
       </c>
       <c r="D3" s="14">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="14">
+        <v>150</v>
+      </c>
+      <c r="F3" s="14">
         <v>200</v>
       </c>
-      <c r="E3" s="14">
-        <v>15</v>
-      </c>
-      <c r="F3" s="14">
+      <c r="G3" s="14">
+        <v>100</v>
+      </c>
+      <c r="H3" s="14">
         <v>10</v>
-      </c>
-      <c r="G3" s="14">
-        <v>10</v>
-      </c>
-      <c r="H3" s="14">
-        <v>5</v>
       </c>
       <c r="I3" s="14">
         <v>150</v>
@@ -1414,19 +1419,19 @@
         <v>65</v>
       </c>
       <c r="D4" s="14">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="E4" s="14">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="F4" s="14">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="G4" s="14">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="H4" s="14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I4" s="14">
         <v>150</v>
@@ -1479,19 +1484,19 @@
         <v>64</v>
       </c>
       <c r="D5" s="14">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="E5" s="14">
+        <v>150</v>
+      </c>
+      <c r="F5" s="14">
+        <v>240</v>
+      </c>
+      <c r="G5" s="14">
+        <v>100</v>
+      </c>
+      <c r="H5" s="14">
         <v>15</v>
-      </c>
-      <c r="F5" s="14">
-        <v>12</v>
-      </c>
-      <c r="G5" s="14">
-        <v>10</v>
-      </c>
-      <c r="H5" s="14">
-        <v>10</v>
       </c>
       <c r="I5" s="14">
         <v>150</v>
@@ -1544,19 +1549,19 @@
         <v>63</v>
       </c>
       <c r="D6" s="14">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E6" s="14">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="F6" s="14">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="G6" s="14">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H6" s="14">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I6" s="14">
         <v>150</v>
@@ -1609,19 +1614,19 @@
         <v>64</v>
       </c>
       <c r="D7" s="14">
+        <v>3000</v>
+      </c>
+      <c r="E7" s="14">
+        <v>120</v>
+      </c>
+      <c r="F7" s="14">
         <v>300</v>
       </c>
-      <c r="E7" s="14">
-        <v>12</v>
-      </c>
-      <c r="F7" s="14">
-        <v>15</v>
-      </c>
       <c r="G7" s="14">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="H7" s="14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I7" s="14">
         <v>150</v>
@@ -1674,19 +1679,19 @@
         <v>65</v>
       </c>
       <c r="D8" s="14">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="E8" s="14">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="F8" s="14">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="G8" s="14">
+        <v>100</v>
+      </c>
+      <c r="H8" s="14">
         <v>10</v>
-      </c>
-      <c r="H8" s="14">
-        <v>5</v>
       </c>
       <c r="I8" s="14">
         <v>150</v>
@@ -1739,19 +1744,19 @@
         <v>63</v>
       </c>
       <c r="D9" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="14">
+        <v>250</v>
+      </c>
+      <c r="F9" s="14">
         <v>100</v>
       </c>
-      <c r="E9" s="14">
-        <v>25</v>
-      </c>
-      <c r="F9" s="14">
-        <v>5</v>
-      </c>
       <c r="G9" s="14">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="H9" s="14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I9" s="14">
         <v>150</v>
@@ -1796,5 +1801,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Design/Main_Data/Hero.xlsx
+++ b/Design/Main_Data/Hero.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
   <si>
     <t>char_ID</t>
   </si>
@@ -377,6 +377,22 @@
   </si>
   <si>
     <t>Blade</t>
+  </si>
+  <si>
+    <t>XING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heroes/Prefabs/XING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource/UI/Profile/XING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource/UI/Common/XING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1180,13 +1196,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1798,6 +1814,71 @@
         <v>95</v>
       </c>
     </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="14">
+        <v>210</v>
+      </c>
+      <c r="F10" s="14">
+        <v>120</v>
+      </c>
+      <c r="G10" s="14">
+        <v>140</v>
+      </c>
+      <c r="H10" s="14">
+        <v>10</v>
+      </c>
+      <c r="I10" s="14">
+        <v>150</v>
+      </c>
+      <c r="J10" s="14">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>94</v>
+      </c>
+      <c r="U10" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/Main_Data/Hero.xlsx
+++ b/Design/Main_Data/Hero.xlsx
@@ -264,18 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maxHP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,6 +380,18 @@
   </si>
   <si>
     <t>OriginalResource/UI/Common/XING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TREE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1199,10 +1199,10 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1240,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>22</v>
@@ -1249,7 +1249,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>53</v>
@@ -1288,10 +1288,10 @@
         <v>50</v>
       </c>
       <c r="T1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="U1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -1302,7 +1302,7 @@
         <v>55</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D2" s="14">
         <v>1000</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S2" s="14">
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="U2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -1367,7 +1367,7 @@
         <v>56</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D3" s="14">
         <v>2000</v>
@@ -1406,22 +1406,22 @@
         <v>0</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="S3" s="14">
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="U3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -1432,7 +1432,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D4" s="14">
         <v>1500</v>
@@ -1471,22 +1471,22 @@
         <v>0</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="S4" s="14">
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="U4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -1497,7 +1497,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D5" s="14">
         <v>2000</v>
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S5" s="14">
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="U5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1562,7 +1562,7 @@
         <v>59</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D6" s="14">
         <v>1000</v>
@@ -1601,22 +1601,22 @@
         <v>0</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="S6" s="14">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="U6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1627,7 +1627,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D7" s="14">
         <v>3000</v>
@@ -1666,22 +1666,22 @@
         <v>0</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S7" s="14">
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="U7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -1692,7 +1692,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D8" s="14">
         <v>1500</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
         <v>91</v>
       </c>
-      <c r="Q8" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="S8" s="14">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
-        <v>94</v>
-      </c>
       <c r="U8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -1757,7 +1757,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D9" s="14">
         <v>1000</v>
@@ -1796,22 +1796,22 @@
         <v>0</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S9" s="14">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="U9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -1819,10 +1819,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D10" s="14">
         <v>1200</v>
@@ -1861,22 +1861,22 @@
         <v>0</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S10" s="14">
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="U10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Main_Data/Hero.xlsx
+++ b/Design/Main_Data/Hero.xlsx
@@ -367,22 +367,6 @@
     <t>Blade</t>
   </si>
   <si>
-    <t>XING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heroes/Prefabs/XING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OriginalResource/UI/Profile/XING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OriginalResource/UI/Common/XING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FIRE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,6 +376,22 @@
   </si>
   <si>
     <t>TREE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heroes/Prefabs/Xing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource/UI/Profile/Xing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalResource/UI/Common/Xing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1202,7 +1202,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1302,7 +1302,7 @@
         <v>55</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D2" s="14">
         <v>1000</v>
@@ -1367,7 +1367,7 @@
         <v>56</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D3" s="14">
         <v>2000</v>
@@ -1432,7 +1432,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D4" s="14">
         <v>1500</v>
@@ -1497,7 +1497,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D5" s="14">
         <v>2000</v>
@@ -1562,7 +1562,7 @@
         <v>59</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D6" s="14">
         <v>1000</v>
@@ -1627,7 +1627,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D7" s="14">
         <v>3000</v>
@@ -1692,7 +1692,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D8" s="14">
         <v>1500</v>
@@ -1757,7 +1757,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D9" s="14">
         <v>1000</v>
@@ -1819,10 +1819,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>98</v>
       </c>
       <c r="D10" s="14">
         <v>1200</v>
@@ -1861,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S10" s="14">
         <v>0</v>
